--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433FDD33-088D-4600-9B92-E1BDFE00FCF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA9ECD0-5ADF-4F49-8B81-57E8AC409DC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>4月27号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱文瑾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>费用类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,7 +82,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5月8号</t>
+    <t>苏源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0755）88673619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +119,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,12 +149,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,7 +453,7 @@
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +461,10 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -461,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -481,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -501,7 +524,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -515,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1">
-        <v>43217</v>
+        <v>43259</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -524,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="N5" s="1">
-        <v>43217</v>
+        <v>43280</v>
       </c>
       <c r="O5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -550,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -570,47 +593,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="M8" t="s">
         <v>12</v>
       </c>
       <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
       <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s">
         <v>14</v>
       </c>
-      <c r="N9" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R13" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="O8:P8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
